--- a/jayud-mall/jayud-mall-web/src/main/resources/template/Nanjing_bills.xlsx
+++ b/jayud-mall/jayud-mall-web/src/main/resources/template/Nanjing_bills.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>南京佳裕达物流有限公司</t>
   </si>
@@ -97,6 +97,9 @@
     <t>{a.orderNo}</t>
   </si>
   <si>
+    <t>{a.fillFormat}</t>
+  </si>
+  <si>
     <t>{a.serviceType}</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>总计</t>
+  </si>
+  <si>
+    <t>{b.fillFormat}</t>
   </si>
   <si>
     <t>{b.currency}</t>
@@ -159,12 +165,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +238,13 @@
     <font>
       <b/>
       <sz val="24"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -263,10 +276,91 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color indexed="12"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -277,24 +371,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -307,14 +388,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,20 +409,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -350,27 +417,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -381,37 +432,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -434,31 +454,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,7 +574,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,7 +586,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,73 +622,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,56 +638,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -629,26 +649,41 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -669,9 +704,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,6 +737,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -714,51 +760,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,137 +778,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -935,11 +946,11 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -950,11 +961,8 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -965,22 +973,25 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -989,16 +1000,10 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1007,8 +1012,17 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1379,8 +1393,8 @@
   <sheetPr/>
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="24.75" customHeight="1"/>
@@ -1491,12 +1505,12 @@
         <v>2</v>
       </c>
       <c r="C6" s="15"/>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -1505,7 +1519,7 @@
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
-      <c r="P6" s="33"/>
+      <c r="P6" s="16"/>
     </row>
     <row r="7" customHeight="1" spans="1:15">
       <c r="A7" s="14"/>
@@ -1560,410 +1574,444 @@
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="34"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="2:16">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="35" t="s">
+      <c r="L10" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="36" t="s">
+      <c r="M10" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="36" t="s">
+      <c r="N10" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="36" t="s">
+      <c r="O10" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="P10" s="37" t="s">
+      <c r="P10" s="35" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" customHeight="1" spans="2:16">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24" t="s">
+      <c r="E11" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="F11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="24" t="s">
+      <c r="J11" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="24" t="s">
+      <c r="K11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="24" t="s">
+      <c r="L11" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="M11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="24" t="s">
+      <c r="N11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="P11" s="38" t="s">
+      <c r="O11" s="23" t="s">
         <v>34</v>
+      </c>
+      <c r="P11" s="36" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" customHeight="1" spans="1:16">
       <c r="A12" s="6"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="38"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="36"/>
     </row>
     <row r="13" s="4" customFormat="1" customHeight="1" spans="1:16">
       <c r="A13" s="6"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="38"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="36"/>
     </row>
     <row r="14" s="4" customFormat="1" customHeight="1" spans="1:16">
       <c r="A14" s="6"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="38"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="36"/>
     </row>
     <row r="15" s="4" customFormat="1" customHeight="1" spans="1:16">
       <c r="A15" s="6"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="38"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="36"/>
     </row>
     <row r="16" s="4" customFormat="1" customHeight="1" spans="1:16">
       <c r="A16" s="6"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="38"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="36"/>
     </row>
     <row r="17" s="4" customFormat="1" customHeight="1" spans="1:16">
       <c r="A17" s="6"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="38"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="36"/>
     </row>
     <row r="18" s="4" customFormat="1" customHeight="1" spans="1:16">
       <c r="A18" s="6"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="38"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="36"/>
     </row>
     <row r="19" s="4" customFormat="1" customHeight="1" spans="1:16">
       <c r="A19" s="6"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="38"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="36"/>
     </row>
     <row r="20" s="4" customFormat="1" customHeight="1" spans="1:16">
       <c r="A20" s="6"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="38"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="36"/>
     </row>
     <row r="21" s="4" customFormat="1" customHeight="1" spans="1:16">
       <c r="A21" s="6"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="N21" s="24" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="O21" s="24"/>
-      <c r="P21" s="38"/>
+      <c r="N21" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21" s="23"/>
+      <c r="P21" s="36"/>
     </row>
     <row r="22" s="3" customFormat="1" customHeight="1" spans="2:16">
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="N22" s="25" t="s">
+      <c r="B22" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="O22" s="25"/>
-      <c r="P22" s="38"/>
+      <c r="C22" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="M22" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="O22" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" s="39" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="23" s="3" customFormat="1" customHeight="1" spans="2:16">
-      <c r="B23" s="25"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="38"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="36"/>
     </row>
     <row r="24" s="5" customFormat="1" customHeight="1" spans="2:16">
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="29"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" s="5" customFormat="1" customHeight="1" spans="2:16">
-      <c r="B25" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
+      <c r="B25" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
       <c r="P25" s="7"/>
     </row>
     <row r="26" s="5" customFormat="1" customHeight="1" spans="2:16">
-      <c r="B26" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
+      <c r="B26" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
       <c r="P26" s="7"/>
     </row>
     <row r="27" customHeight="1" spans="2:15">
-      <c r="B27" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28" t="s">
+      <c r="B27" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
-      <c r="M27" s="39"/>
+      <c r="M27" s="40"/>
       <c r="N27" s="30"/>
       <c r="O27" s="30"/>
     </row>
     <row r="28" customHeight="1" spans="2:15">
-      <c r="B28" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
+      <c r="B28" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
@@ -1974,16 +2022,16 @@
       <c r="O28" s="30"/>
     </row>
     <row r="29" customHeight="1" spans="2:15">
-      <c r="B29" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
+      <c r="B29" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
@@ -1994,12 +2042,12 @@
       <c r="O29" s="30"/>
     </row>
     <row r="30" s="6" customFormat="1" customHeight="1" spans="2:16">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
       <c r="H30" s="30"/>
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
@@ -2011,50 +2059,52 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" customHeight="1" spans="2:15">
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
     </row>
     <row r="32" customHeight="1" spans="2:15">
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="K5:O5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:P6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:P9"/>
     <mergeCell ref="B24:O24"/>
     <mergeCell ref="B25:O25"/>
     <mergeCell ref="B26:C26"/>

--- a/jayud-mall/jayud-mall-web/src/main/resources/template/Nanjing_bills.xlsx
+++ b/jayud-mall/jayud-mall-web/src/main/resources/template/Nanjing_bills.xlsx
@@ -14,138 +14,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+  <si>
+    <t>{legalName}</t>
+  </si>
+  <si>
+    <t>{legalEnName}</t>
+  </si>
+  <si>
+    <t>账单编号</t>
+  </si>
+  <si>
+    <t>{billCodes}</t>
+  </si>
+  <si>
+    <t>账单日期</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>到期日期</t>
+  </si>
+  <si>
+    <t>客户名称</t>
+  </si>
+  <si>
+    <t>{customerName}</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>运单号</t>
+  </si>
+  <si>
+    <t>客户运单号</t>
+  </si>
+  <si>
+    <t>转单号</t>
+  </si>
+  <si>
+    <t>FBA号</t>
+  </si>
+  <si>
+    <t>邮编</t>
+  </si>
+  <si>
+    <t>服务类型</t>
+  </si>
+  <si>
+    <t>发往国家</t>
+  </si>
+  <si>
+    <t>件数</t>
+  </si>
+  <si>
+    <t>收费重</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>币种名称</t>
+  </si>
+  <si>
+    <t>费用类型</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>{a.sequenceNumber}</t>
+  </si>
+  <si>
+    <t>{a.createTime}</t>
+  </si>
+  <si>
+    <t>{a.orderNo}</t>
+  </si>
+  <si>
+    <t>{a.warehouseNo}</t>
+  </si>
+  <si>
+    <t>{a.trackingNumber}</t>
+  </si>
+  <si>
+    <t>{a.fabNo}</t>
+  </si>
+  <si>
+    <t>{a.zipCode}</t>
+  </si>
+  <si>
+    <t>{a.serviceType}</t>
+  </si>
+  <si>
+    <t>{a.countryName}</t>
+  </si>
+  <si>
+    <t>{a.totalCartons}</t>
+  </si>
+  <si>
+    <t>{a.count}</t>
+  </si>
+  <si>
+    <t>{a.unitPrice}</t>
+  </si>
+  <si>
+    <t>{a.amount}</t>
+  </si>
+  <si>
+    <t>{a.cname}</t>
+  </si>
+  <si>
+    <t>{a.costName}</t>
+  </si>
+  <si>
+    <t>{a.remarks}</t>
+  </si>
+  <si>
+    <t>币种</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>{b.fillFormat}</t>
+  </si>
+  <si>
+    <t>{b.currency}</t>
+  </si>
+  <si>
+    <t>{b.total}</t>
+  </si>
+  <si>
+    <t>麻烦您尽快确认账单，如有任何疑问，请联系我司相应人员，超过二天未确认又未提出异议的，视为确认该账单。账单确认后麻烦尽快安排付款事宜，谢谢！</t>
+  </si>
+  <si>
+    <t>银行信息:</t>
+  </si>
+  <si>
+    <t>户       名:</t>
+  </si>
   <si>
     <t>南京佳裕达物流有限公司</t>
-  </si>
-  <si>
-    <t>NANJING JIAYU DA LOGISTICS CO.,LTD</t>
-  </si>
-  <si>
-    <t>账单编号</t>
-  </si>
-  <si>
-    <t>{billCodes}</t>
-  </si>
-  <si>
-    <t>账单日期</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>到期日期</t>
-  </si>
-  <si>
-    <t>客户名称</t>
-  </si>
-  <si>
-    <t>{customerName}</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>运单号</t>
-  </si>
-  <si>
-    <t>客户运单号</t>
-  </si>
-  <si>
-    <t>转单号</t>
-  </si>
-  <si>
-    <t>FBA号</t>
-  </si>
-  <si>
-    <t>邮编</t>
-  </si>
-  <si>
-    <t>服务类型</t>
-  </si>
-  <si>
-    <t>发往国家</t>
-  </si>
-  <si>
-    <t>件数</t>
-  </si>
-  <si>
-    <t>收费重</t>
-  </si>
-  <si>
-    <t>单价</t>
-  </si>
-  <si>
-    <t>金额</t>
-  </si>
-  <si>
-    <t>费用类型</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>{a.sequenceNumber}</t>
-  </si>
-  <si>
-    <t>{a.createTime}</t>
-  </si>
-  <si>
-    <t>{a.orderNo}</t>
-  </si>
-  <si>
-    <t>{a.fillFormat}</t>
-  </si>
-  <si>
-    <t>{a.serviceType}</t>
-  </si>
-  <si>
-    <t>{a.countryName}</t>
-  </si>
-  <si>
-    <t>{a.totalCartons}</t>
-  </si>
-  <si>
-    <t>{a.count}</t>
-  </si>
-  <si>
-    <t>{a.unitPrice}</t>
-  </si>
-  <si>
-    <t>{a.amount}</t>
-  </si>
-  <si>
-    <t>{a.costName}</t>
-  </si>
-  <si>
-    <t>{a.remarks}</t>
-  </si>
-  <si>
-    <t>币种</t>
-  </si>
-  <si>
-    <t>总计</t>
-  </si>
-  <si>
-    <t>{b.fillFormat}</t>
-  </si>
-  <si>
-    <t>{b.currency}</t>
-  </si>
-  <si>
-    <t>{b.total}</t>
-  </si>
-  <si>
-    <t>麻烦您尽快确认账单，如有任何疑问，请联系我司相应人员，超过二天未确认又未提出异议的，视为确认该账单。账单确认后麻烦尽快安排付款事宜，谢谢！</t>
-  </si>
-  <si>
-    <t>银行信息:</t>
-  </si>
-  <si>
-    <t>户       名:</t>
   </si>
   <si>
     <t>银行帐号:</t>
@@ -165,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -290,14 +308,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,42 +366,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -357,7 +376,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,22 +413,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -432,6 +443,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -454,25 +472,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,157 +640,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,6 +681,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -678,15 +720,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -698,26 +731,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,23 +753,28 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,10 +784,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,16 +796,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -796,115 +814,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -973,12 +991,12 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1006,24 +1024,24 @@
     <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1391,10 +1409,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="24.75" customHeight="1"/>
@@ -1406,14 +1424,14 @@
     <col min="5" max="7" width="20.3333333333333" style="6"/>
     <col min="8" max="8" width="22" style="6"/>
     <col min="9" max="9" width="18.3703703703704" style="6" customWidth="1"/>
-    <col min="10" max="14" width="12.1574074074074" style="6"/>
-    <col min="15" max="15" width="20.3333333333333" style="6"/>
-    <col min="16" max="16" width="18.8981481481481" style="7"/>
-    <col min="17" max="256" width="11" style="4"/>
-    <col min="257" max="16384" width="9.13888888888889" style="4"/>
+    <col min="10" max="15" width="12.1574074074074" style="6"/>
+    <col min="16" max="16" width="20.3333333333333" style="6"/>
+    <col min="17" max="17" width="18.8981481481481" style="7"/>
+    <col min="18" max="257" width="11" style="4"/>
+    <col min="258" max="16384" width="9.13888888888889" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:15">
+    <row r="1" customHeight="1" spans="1:16">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="9"/>
@@ -1430,8 +1448,9 @@
       <c r="L1" s="11"/>
       <c r="N1" s="31"/>
       <c r="O1" s="31"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:15">
+      <c r="P1" s="31"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:16">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
@@ -1446,8 +1465,9 @@
       <c r="L2" s="11"/>
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:15">
+      <c r="P2" s="31"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:16">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -1464,8 +1484,9 @@
       <c r="L3" s="12"/>
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:15">
+      <c r="P3" s="13"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:16">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
@@ -1481,8 +1502,9 @@
       <c r="M4" s="32"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:15">
+      <c r="P4" s="32"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:16">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -1498,8 +1520,9 @@
       <c r="M5" s="32"/>
       <c r="N5" s="32"/>
       <c r="O5" s="32"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:16">
+      <c r="P5" s="32"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:17">
       <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
         <v>2</v>
@@ -1520,8 +1543,9 @@
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:15">
+      <c r="Q6" s="16"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:16">
       <c r="A7" s="14"/>
       <c r="B7" s="17" t="s">
         <v>4</v>
@@ -1541,8 +1565,9 @@
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:15">
+      <c r="P7" s="18"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:16">
       <c r="A8" s="19"/>
       <c r="B8" s="17" t="s">
         <v>6</v>
@@ -1562,8 +1587,9 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="2:16">
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="2:17">
       <c r="B9" s="17" t="s">
         <v>7</v>
       </c>
@@ -1583,8 +1609,9 @@
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
       <c r="P9" s="20"/>
-    </row>
-    <row r="10" s="2" customFormat="1" customHeight="1" spans="2:16">
+      <c r="Q9" s="20"/>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="2:17">
       <c r="B10" s="21" t="s">
         <v>9</v>
       </c>
@@ -1627,58 +1654,64 @@
       <c r="O10" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="P10" s="35" t="s">
+      <c r="P10" s="34" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" s="3" customFormat="1" customHeight="1" spans="2:16">
+      <c r="Q10" s="39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" customHeight="1" spans="2:17">
       <c r="B11" s="23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>27</v>
+      <c r="E11" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O11" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="P11" s="36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" s="4" customFormat="1" customHeight="1" spans="1:16">
+        <v>38</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" s="4" customFormat="1" customHeight="1" spans="1:17">
       <c r="A12" s="6"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -1694,9 +1727,10 @@
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
-      <c r="P12" s="36"/>
-    </row>
-    <row r="13" s="4" customFormat="1" customHeight="1" spans="1:16">
+      <c r="P12" s="23"/>
+      <c r="Q12" s="40"/>
+    </row>
+    <row r="13" s="4" customFormat="1" customHeight="1" spans="1:17">
       <c r="A13" s="6"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -1712,9 +1746,10 @@
       <c r="M13" s="23"/>
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
-      <c r="P13" s="36"/>
-    </row>
-    <row r="14" s="4" customFormat="1" customHeight="1" spans="1:16">
+      <c r="P13" s="23"/>
+      <c r="Q13" s="40"/>
+    </row>
+    <row r="14" s="4" customFormat="1" customHeight="1" spans="1:17">
       <c r="A14" s="6"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -1730,9 +1765,10 @@
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
-      <c r="P14" s="36"/>
-    </row>
-    <row r="15" s="4" customFormat="1" customHeight="1" spans="1:16">
+      <c r="P14" s="23"/>
+      <c r="Q14" s="40"/>
+    </row>
+    <row r="15" s="4" customFormat="1" customHeight="1" spans="1:17">
       <c r="A15" s="6"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -1748,9 +1784,10 @@
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
-      <c r="P15" s="36"/>
-    </row>
-    <row r="16" s="4" customFormat="1" customHeight="1" spans="1:16">
+      <c r="P15" s="23"/>
+      <c r="Q15" s="40"/>
+    </row>
+    <row r="16" s="4" customFormat="1" customHeight="1" spans="1:17">
       <c r="A16" s="6"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -1766,9 +1803,10 @@
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
-      <c r="P16" s="36"/>
-    </row>
-    <row r="17" s="4" customFormat="1" customHeight="1" spans="1:16">
+      <c r="P16" s="23"/>
+      <c r="Q16" s="40"/>
+    </row>
+    <row r="17" s="4" customFormat="1" customHeight="1" spans="1:17">
       <c r="A17" s="6"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -1784,9 +1822,10 @@
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
-      <c r="P17" s="36"/>
-    </row>
-    <row r="18" s="4" customFormat="1" customHeight="1" spans="1:16">
+      <c r="P17" s="23"/>
+      <c r="Q17" s="40"/>
+    </row>
+    <row r="18" s="4" customFormat="1" customHeight="1" spans="1:17">
       <c r="A18" s="6"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -1802,9 +1841,10 @@
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
-      <c r="P18" s="36"/>
-    </row>
-    <row r="19" s="4" customFormat="1" customHeight="1" spans="1:16">
+      <c r="P18" s="23"/>
+      <c r="Q18" s="40"/>
+    </row>
+    <row r="19" s="4" customFormat="1" customHeight="1" spans="1:17">
       <c r="A19" s="6"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -1820,9 +1860,10 @@
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
-      <c r="P19" s="36"/>
-    </row>
-    <row r="20" s="4" customFormat="1" customHeight="1" spans="1:16">
+      <c r="P19" s="23"/>
+      <c r="Q19" s="40"/>
+    </row>
+    <row r="20" s="4" customFormat="1" customHeight="1" spans="1:17">
       <c r="A20" s="6"/>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
@@ -1838,9 +1879,10 @@
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
-      <c r="P20" s="36"/>
-    </row>
-    <row r="21" s="4" customFormat="1" customHeight="1" spans="1:16">
+      <c r="P20" s="23"/>
+      <c r="Q20" s="40"/>
+    </row>
+    <row r="21" s="4" customFormat="1" customHeight="1" spans="1:17">
       <c r="A21" s="6"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -1853,63 +1895,67 @@
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
-      <c r="M21" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="N21" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="O21" s="23"/>
-      <c r="P21" s="36"/>
-    </row>
-    <row r="22" s="3" customFormat="1" customHeight="1" spans="2:16">
-      <c r="B22" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="K22" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="L22" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="M22" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="N22" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="O22" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="P22" s="39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" s="3" customFormat="1" customHeight="1" spans="2:16">
+      <c r="M21" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="N21" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" s="35"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="40"/>
+    </row>
+    <row r="22" s="3" customFormat="1" customHeight="1" spans="2:17">
+      <c r="B22" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="O22" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q22" s="41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="1" customHeight="1" spans="2:17">
       <c r="B23" s="26"/>
       <c r="C23" s="23"/>
       <c r="D23" s="26"/>
@@ -1924,9 +1970,10 @@
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
-      <c r="P23" s="36"/>
-    </row>
-    <row r="24" s="5" customFormat="1" customHeight="1" spans="2:16">
+      <c r="P23" s="26"/>
+      <c r="Q23" s="40"/>
+    </row>
+    <row r="24" s="5" customFormat="1" customHeight="1" spans="2:17">
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -1941,11 +1988,12 @@
       <c r="M24" s="27"/>
       <c r="N24" s="27"/>
       <c r="O24" s="27"/>
-      <c r="P24" s="7"/>
-    </row>
-    <row r="25" s="5" customFormat="1" customHeight="1" spans="2:16">
+      <c r="P24" s="27"/>
+      <c r="Q24" s="7"/>
+    </row>
+    <row r="25" s="5" customFormat="1" customHeight="1" spans="2:17">
       <c r="B25" s="28" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
@@ -1960,11 +2008,12 @@
       <c r="M25" s="28"/>
       <c r="N25" s="28"/>
       <c r="O25" s="28"/>
-      <c r="P25" s="7"/>
-    </row>
-    <row r="26" s="5" customFormat="1" customHeight="1" spans="2:16">
+      <c r="P25" s="28"/>
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="26" s="5" customFormat="1" customHeight="1" spans="2:17">
       <c r="B26" s="29" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="27"/>
@@ -1979,15 +2028,16 @@
       <c r="M26" s="27"/>
       <c r="N26" s="27"/>
       <c r="O26" s="27"/>
-      <c r="P26" s="7"/>
-    </row>
-    <row r="27" customHeight="1" spans="2:15">
+      <c r="P26" s="27"/>
+      <c r="Q26" s="7"/>
+    </row>
+    <row r="27" customHeight="1" spans="2:16">
       <c r="B27" s="29" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
@@ -1997,17 +2047,18 @@
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
-      <c r="M27" s="40"/>
+      <c r="M27" s="37"/>
       <c r="N27" s="30"/>
       <c r="O27" s="30"/>
-    </row>
-    <row r="28" customHeight="1" spans="2:15">
+      <c r="P27" s="30"/>
+    </row>
+    <row r="28" customHeight="1" spans="2:16">
       <c r="B28" s="29" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
@@ -2020,14 +2071,15 @@
       <c r="M28" s="30"/>
       <c r="N28" s="30"/>
       <c r="O28" s="30"/>
-    </row>
-    <row r="29" customHeight="1" spans="2:15">
+      <c r="P28" s="30"/>
+    </row>
+    <row r="29" customHeight="1" spans="2:16">
       <c r="B29" s="29" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="29" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E29" s="29"/>
       <c r="F29" s="29"/>
@@ -2040,8 +2092,9 @@
       <c r="M29" s="30"/>
       <c r="N29" s="30"/>
       <c r="O29" s="30"/>
-    </row>
-    <row r="30" s="6" customFormat="1" customHeight="1" spans="2:16">
+      <c r="P29" s="30"/>
+    </row>
+    <row r="30" s="6" customFormat="1" customHeight="1" spans="2:17">
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
@@ -2056,9 +2109,10 @@
       <c r="M30" s="30"/>
       <c r="N30" s="30"/>
       <c r="O30" s="30"/>
-      <c r="P30" s="7"/>
-    </row>
-    <row r="31" customHeight="1" spans="2:15">
+      <c r="P30" s="30"/>
+      <c r="Q30" s="7"/>
+    </row>
+    <row r="31" customHeight="1" spans="2:16">
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
@@ -2066,15 +2120,16 @@
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-    </row>
-    <row r="32" customHeight="1" spans="2:15">
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+    </row>
+    <row r="32" customHeight="1" spans="2:16">
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
@@ -2082,31 +2137,32 @@
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="23">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="K4:P4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="K5:P5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="D6:Q6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:P9"/>
-    <mergeCell ref="B24:O24"/>
-    <mergeCell ref="B25:O25"/>
+    <mergeCell ref="D9:Q9"/>
+    <mergeCell ref="B24:P24"/>
+    <mergeCell ref="B25:P25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>

--- a/jayud-mall/jayud-mall-web/src/main/resources/template/Nanjing_bills.xlsx
+++ b/jayud-mall/jayud-mall-web/src/main/resources/template/Nanjing_bills.xlsx
@@ -163,19 +163,19 @@
     <t>户       名:</t>
   </si>
   <si>
-    <t>南京佳裕达物流有限公司</t>
+    <t>{bankAccountName}</t>
   </si>
   <si>
     <t>银行帐号:</t>
   </si>
   <si>
-    <t>4301 0301 0910 0086 027</t>
+    <t>{accountOpen}</t>
   </si>
   <si>
     <t>开户银行:</t>
   </si>
   <si>
-    <t>中国工商银行股份有限公司 南京嘉陵江东街支行</t>
+    <t>{bank}</t>
   </si>
 </sst>
 </file>
@@ -183,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -308,14 +308,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,36 +352,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -374,6 +360,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -382,52 +414,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -445,11 +431,25 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -472,61 +472,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,121 +652,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,11 +681,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,17 +711,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,6 +731,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,26 +773,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -784,10 +784,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -796,133 +796,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1411,8 +1411,8 @@
   <sheetPr/>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:Q6"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="24.75" customHeight="1"/>

--- a/jayud-mall/jayud-mall-web/src/main/resources/template/Nanjing_bills.xlsx
+++ b/jayud-mall/jayud-mall-web/src/main/resources/template/Nanjing_bills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -275,7 +275,7 @@
     </font>
     <font>
       <sz val="16"/>
-      <color indexed="11"/>
+      <color theme="4"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -308,6 +308,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -315,9 +322,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -330,29 +375,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -361,25 +383,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -399,13 +405,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -414,6 +413,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -429,27 +450,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -472,187 +472,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,6 +681,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -697,30 +717,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -731,26 +727,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,16 +754,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -796,133 +796,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1134,8 +1134,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="147955" y="196215"/>
-          <a:ext cx="5163185" cy="1133475"/>
+          <a:off x="164465" y="196215"/>
+          <a:ext cx="5679440" cy="1133475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1412,23 +1412,23 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="24.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="24.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.15740740740741" style="6"/>
-    <col min="2" max="2" width="6.15740740740741" style="6"/>
+    <col min="1" max="1" width="2.15833333333333" style="6"/>
+    <col min="2" max="2" width="6.15833333333333" style="6"/>
     <col min="3" max="3" width="12.5" style="6"/>
-    <col min="4" max="4" width="28.7407407407407" style="6" customWidth="1"/>
+    <col min="4" max="4" width="28.7416666666667" style="6" customWidth="1"/>
     <col min="5" max="7" width="20.3333333333333" style="6"/>
     <col min="8" max="8" width="22" style="6"/>
-    <col min="9" max="9" width="18.3703703703704" style="6" customWidth="1"/>
-    <col min="10" max="15" width="12.1574074074074" style="6"/>
+    <col min="9" max="9" width="18.3666666666667" style="6" customWidth="1"/>
+    <col min="10" max="15" width="12.1583333333333" style="6"/>
     <col min="16" max="16" width="20.3333333333333" style="6"/>
-    <col min="17" max="17" width="18.8981481481481" style="7"/>
+    <col min="17" max="17" width="18.9" style="7"/>
     <col min="18" max="257" width="11" style="4"/>
-    <col min="258" max="16384" width="9.13888888888889" style="4"/>
+    <col min="258" max="16384" width="9.14166666666667" style="4"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:16">
